--- a/333RestaurantSelectionProject/dishes.xlsx
+++ b/333RestaurantSelectionProject/dishes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB412999-3840-4FF9-B271-41C484169DCA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735AF234-779A-4BF0-A7D2-3E1A1ECD3623}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C213" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
